--- a/CMO Dashboard/CMO_Dashboard_Complete.xlsx
+++ b/CMO Dashboard/CMO_Dashboard_Complete.xlsx
@@ -111,12 +111,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -144,6 +145,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="009C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -214,6 +223,316 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Competitive Positioning Matrix</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <v>My Product</v>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="4472C4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="12"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$I$4</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$J$4</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <v>Competitors</v>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="diamond"/>
+            <size val="12"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$I$5</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$J$5</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Price ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Attractiveness Score</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>High vs Low Segment Comparison</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'SEGMENT_PULSE'!I26</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$H$27:$H$29</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$I$27:$I$29</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'SEGMENT_PULSE'!J26</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$H$27:$H$29</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'SEGMENT_PULSE'!$J$27:$J$29</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4320000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4320000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +838,9 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,6 +849,11 @@
           <t>SEGMENT PULSE - Market Allocation Drivers</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>COMPETITIVE POSITIONING</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -534,6 +861,21 @@
           <t>HIGH SEGMENT ANALYSIS</t>
         </is>
       </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>Attractiveness</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -566,6 +908,17 @@
           <t>Allocation Flag</t>
         </is>
       </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>My Product</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -573,22 +926,33 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Competitors</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -597,19 +961,19 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -621,19 +985,19 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -645,19 +1009,19 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -669,19 +1033,19 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -732,19 +1096,19 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -756,19 +1120,19 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -780,19 +1144,19 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -804,19 +1168,19 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -828,22 +1192,85 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <v>25</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="F18" s="7" t="inlineStr">
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>HIGH vs LOW SEGMENT GAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>High Segment</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>Low Segment</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>Awareness</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>Price Competitiveness</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>Attractiveness</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +1292,36 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C9">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3TrafficLights1" showValue="1" reverse="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="70"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C17">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3TrafficLights1" showValue="1" reverse="0">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="40"/>
+        <cfvo type="num" val="70"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D9">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>D5&gt;0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D17">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>D5&gt;0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -896,7 +1352,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Note: Innovations increase Attractiveness. Required for High Segment Allocation.</t>
         </is>
@@ -925,10 +1381,10 @@
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="n">
+      <c r="B5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -938,10 +1394,10 @@
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="B6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="n">
+      <c r="B6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -951,10 +1407,10 @@
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="B7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="n">
+      <c r="B7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -964,10 +1420,10 @@
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="B8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="n">
+      <c r="B8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -977,10 +1433,10 @@
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10" t="n">
+      <c r="B9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -990,10 +1446,10 @@
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10" t="n">
+      <c r="B10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1003,10 +1459,10 @@
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="n">
+      <c r="B11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1016,10 +1472,10 @@
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="B12" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="n">
+      <c r="B12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1029,10 +1485,10 @@
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="n">
+      <c r="B13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1042,10 +1498,10 @@
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="B14" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="B14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1055,10 +1511,10 @@
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="B15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10" t="n">
+      <c r="B15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1068,10 +1524,10 @@
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10" t="n">
+      <c r="B16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1081,10 +1537,10 @@
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="B17" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10" t="n">
+      <c r="B17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1094,20 +1550,20 @@
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="B18" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10" t="n">
+      <c r="B18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>TOTAL INNOVATION COST</t>
         </is>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="13">
         <f>SUMPRODUCT(B5:B18,C5:C18)</f>
         <v/>
       </c>
@@ -1145,7 +1601,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>HOW TO USE: Adjust Yellow cells. Check Profit Projection. Go to UPLOAD_READY tabs to copy decisions.</t>
         </is>
@@ -1164,10 +1620,10 @@
           <t>TV Budget ($)</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>Primary Driver: High Segment Awareness</t>
         </is>
@@ -1179,10 +1635,10 @@
           <t>Brand Focus (0-100)</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="14" t="n">
         <v>50</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>0=Awareness focus, 100=Attributes focus</t>
         </is>
@@ -1196,57 +1652,57 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="inlineStr">
+      <c r="A11" s="15" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B11" s="14" t="inlineStr">
+      <c r="B11" s="15" t="inlineStr">
         <is>
           <t>Last Sales</t>
         </is>
       </c>
-      <c r="C11" s="14" t="inlineStr">
+      <c r="C11" s="15" t="inlineStr">
         <is>
           <t>Stockout?</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>Target Demand</t>
         </is>
       </c>
-      <c r="E11" s="14" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>Radio Budget</t>
         </is>
       </c>
-      <c r="F11" s="14" t="inlineStr">
+      <c r="F11" s="15" t="inlineStr">
         <is>
           <t>Salespeople</t>
         </is>
       </c>
-      <c r="G11" s="14" t="inlineStr">
+      <c r="G11" s="15" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H11" s="14" t="inlineStr">
+      <c r="H11" s="15" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="I11" s="14" t="inlineStr">
+      <c r="I11" s="15" t="inlineStr">
         <is>
           <t>Est. Revenue</t>
         </is>
       </c>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="J11" s="15" t="inlineStr">
         <is>
           <t>Mkt Cost</t>
         </is>
       </c>
-      <c r="K11" s="14" t="inlineStr">
+      <c r="K11" s="15" t="inlineStr">
         <is>
           <t>Contribution</t>
         </is>
@@ -1258,40 +1714,40 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C12" s="16" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="11" t="n">
         <v>210</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="H12" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <f>D12*G12</f>
         <v/>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="19">
         <f>($B$5/5)+E12+(F12*5000)+(INNOVATION_LAB!C20/5)</f>
         <v/>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="20">
         <f>I12-J12-(D12*40)</f>
         <v/>
       </c>
@@ -1302,40 +1758,40 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D13" s="17" t="n">
+      <c r="D13" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="11" t="n">
         <v>102</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="H13" s="9" t="inlineStr">
+      <c r="H13" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="19">
         <f>D13*G13</f>
         <v/>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="19">
         <f>($B$5/5)+E13+(F13*5000)+(INNOVATION_LAB!C20/5)</f>
         <v/>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="20">
         <f>I13-J13-(D13*40)</f>
         <v/>
       </c>
@@ -1346,40 +1802,40 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C14" s="16" t="inlineStr">
+      <c r="C14" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="H14" s="9" t="inlineStr">
+      <c r="H14" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <f>D14*G14</f>
         <v/>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="19">
         <f>($B$5/5)+E14+(F14*5000)+(INNOVATION_LAB!C20/5)</f>
         <v/>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="20">
         <f>I14-J14-(D14*40)</f>
         <v/>
       </c>
@@ -1390,40 +1846,40 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C15" s="16" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="H15" s="9" t="inlineStr">
+      <c r="H15" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="19">
         <f>D15*G15</f>
         <v/>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="19">
         <f>($B$5/5)+E15+(F15*5000)+(INNOVATION_LAB!C20/5)</f>
         <v/>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="20">
         <f>I15-J15-(D15*40)</f>
         <v/>
       </c>
@@ -1434,63 +1890,63 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B16" s="15" t="n">
+      <c r="B16" s="16" t="n">
         <v>1000</v>
       </c>
-      <c r="C16" s="16" t="inlineStr">
+      <c r="C16" s="17" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="11" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="H16" s="9" t="inlineStr">
+      <c r="H16" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <f>D16*G16</f>
         <v/>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="19">
         <f>($B$5/5)+E16+(F16*5000)+(INNOVATION_LAB!C20/5)</f>
         <v/>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="20">
         <f>I16-J16-(D16*40)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="12" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="21">
         <f>SUM(D12:D16)</f>
         <v/>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="22">
         <f>SUM(I12:I16)</f>
         <v/>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="22">
         <f>SUM(J12:J16)</f>
         <v/>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="23">
         <f>SUM(K12:K16)</f>
         <v/>
       </c>
@@ -1522,7 +1978,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Marketing upload</t>
         </is>
@@ -1576,42 +2032,42 @@
           <t>Brand Focus</t>
         </is>
       </c>
-      <c r="G5" s="23" t="inlineStr">
+      <c r="G5" s="24" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="H5" s="23" t="inlineStr">
+      <c r="H5" s="24" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="J5" s="23" t="inlineStr">
+      <c r="J5" s="24" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="K5" s="23" t="inlineStr">
+      <c r="K5" s="24" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="L5" s="23" t="inlineStr">
+      <c r="L5" s="24" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="N5" s="23" t="inlineStr">
+      <c r="N5" s="24" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="O5" s="23" t="inlineStr">
+      <c r="O5" s="24" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="P5" s="23" t="inlineStr">
+      <c r="P5" s="24" t="inlineStr">
         <is>
           <t>Salespeople</t>
         </is>
@@ -1979,24 +2435,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Innovation upload</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="inlineStr">
+      <c r="A4" s="24" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="B4" s="23" t="inlineStr">
+      <c r="B4" s="24" t="inlineStr">
         <is>
           <t>Improvement</t>
         </is>
       </c>
-      <c r="C4" s="23" t="inlineStr">
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>Value</t>
         </is>

--- a/CMO Dashboard/CMO_Dashboard_Complete.xlsx
+++ b/CMO Dashboard/CMO_Dashboard_Complete.xlsx
@@ -25,7 +25,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="$#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,8 +54,12 @@
       <i val="1"/>
       <color rgb="00666666"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="009C0006"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -70,8 +74,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
         <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -111,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -119,27 +135,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -914,10 +933,10 @@
         </is>
       </c>
       <c r="I4" s="5" t="n">
-        <v>85.40000000000001</v>
+        <v>50.286</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>50</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="5">
@@ -927,20 +946,20 @@
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
+        <v>31.7</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>-21.13333333333334</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.1114059235182913</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
+        <v>30.21</v>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr">
@@ -949,10 +968,10 @@
         </is>
       </c>
       <c r="I5" s="5" t="n">
-        <v>85.40000000000001</v>
+        <v>50.622</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -962,20 +981,20 @@
         </is>
       </c>
       <c r="B6" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
+        <v>21.8</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>-14.02333333333333</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>-0.0881673405396485</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
+        <v>19.24</v>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
         </is>
       </c>
     </row>
@@ -986,18 +1005,18 @@
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>0</v>
+        <v>2.043333333333337</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>-0.08011511325659113</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
+        <v>25.35</v>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1009,21 +1028,21 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
-        <v>25</v>
+      <c r="B8" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
         </is>
       </c>
     </row>
@@ -1033,21 +1052,21 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n">
-        <v>25</v>
+      <c r="B9" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
         </is>
       </c>
     </row>
@@ -1097,20 +1116,20 @@
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>0</v>
+        <v>33.7</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>-7.606666666666666</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>0.1114059235182913</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>OK</t>
+        <v>30.21</v>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>RISK: Losing Volume to Price</t>
         </is>
       </c>
     </row>
@@ -1121,18 +1140,18 @@
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>0</v>
+        <v>18.8</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>-0.5033333333333339</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>-0.0881673405396485</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
+        <v>19.24</v>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1145,18 +1164,18 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>25</v>
+        <v>20.7</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>0</v>
+        <v>2.529999999999994</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>-0.08011511325659113</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
+        <v>25.35</v>
+      </c>
+      <c r="F16" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1168,19 +1187,19 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n">
-        <v>25</v>
+      <c r="B17" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1192,19 +1211,19 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n">
-        <v>25</v>
+      <c r="B18" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1241,10 +1260,10 @@
         </is>
       </c>
       <c r="I27" s="4" t="n">
-        <v>50</v>
+        <v>24.584</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>50</v>
+        <v>24.584</v>
       </c>
     </row>
     <row r="28">
@@ -1254,10 +1273,10 @@
         </is>
       </c>
       <c r="I28" s="4" t="n">
-        <v>100</v>
+        <v>98.86246939444104</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>100</v>
+        <v>98.86246939444104</v>
       </c>
     </row>
     <row r="29">
@@ -1267,10 +1286,10 @@
         </is>
       </c>
       <c r="I29" s="4" t="n">
-        <v>50</v>
+        <v>14.96</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>50</v>
+        <v>14.96</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1371,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Note: Innovations increase Attractiveness. Required for High Segment Allocation.</t>
         </is>
@@ -1381,10 +1400,10 @@
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="n">
+      <c r="B5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1394,10 +1413,10 @@
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11" t="n">
+      <c r="B6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1407,10 +1426,10 @@
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="B7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1420,10 +1439,10 @@
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="B8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="n">
+      <c r="B8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1433,10 +1452,10 @@
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="n">
+      <c r="B9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1446,10 +1465,10 @@
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="n">
+      <c r="B10" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1459,10 +1478,10 @@
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="n">
+      <c r="B11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1472,10 +1491,10 @@
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11" t="n">
+      <c r="B12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1485,10 +1504,10 @@
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="11" t="n">
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1498,10 +1517,10 @@
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="n">
+      <c r="B14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1511,10 +1530,10 @@
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11" t="n">
+      <c r="B15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1524,10 +1543,10 @@
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="11" t="n">
+      <c r="B16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1537,10 +1556,10 @@
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11" t="n">
+      <c r="B17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1550,20 +1569,20 @@
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="11" t="n">
+      <c r="B18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>TOTAL INNOVATION COST</t>
         </is>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="16">
         <f>SUMPRODUCT(B5:B18,C5:C18)</f>
         <v/>
       </c>
@@ -1601,7 +1620,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>HOW TO USE: Adjust Yellow cells. Check Profit Projection. Go to UPLOAD_READY tabs to copy decisions.</t>
         </is>
@@ -1620,10 +1639,10 @@
           <t>TV Budget ($)</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>35</v>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="B5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>Primary Driver: High Segment Awareness</t>
         </is>
@@ -1635,10 +1654,10 @@
           <t>Brand Focus (0-100)</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="B6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>0=Awareness focus, 100=Attributes focus</t>
         </is>
@@ -1652,57 +1671,57 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B11" s="15" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>Last Sales</t>
         </is>
       </c>
-      <c r="C11" s="15" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Stockout?</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Target Demand</t>
         </is>
       </c>
-      <c r="E11" s="15" t="inlineStr">
+      <c r="E11" s="18" t="inlineStr">
         <is>
           <t>Radio Budget</t>
         </is>
       </c>
-      <c r="F11" s="15" t="inlineStr">
+      <c r="F11" s="18" t="inlineStr">
         <is>
           <t>Salespeople</t>
         </is>
       </c>
-      <c r="G11" s="15" t="inlineStr">
+      <c r="G11" s="18" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H11" s="15" t="inlineStr">
+      <c r="H11" s="18" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="I11" s="15" t="inlineStr">
+      <c r="I11" s="18" t="inlineStr">
         <is>
           <t>Est. Revenue</t>
         </is>
       </c>
-      <c r="J11" s="15" t="inlineStr">
+      <c r="J11" s="18" t="inlineStr">
         <is>
           <t>Mkt Cost</t>
         </is>
       </c>
-      <c r="K11" s="15" t="inlineStr">
+      <c r="K11" s="18" t="inlineStr">
         <is>
           <t>Contribution</t>
         </is>
@@ -1714,41 +1733,37 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C12" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D12" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="11" t="n">
-        <v>210</v>
-      </c>
-      <c r="F12" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I12" s="19">
+      <c r="B12" s="19" t="n">
+        <v>6770</v>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>7447</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="inlineStr"/>
+      <c r="I12" s="22">
         <f>D12*G12</f>
         <v/>
       </c>
-      <c r="J12" s="19">
-        <f>($B$5/5)+E12+(F12*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="20">
-        <f>I12-J12-(D12*40)</f>
+      <c r="J12" s="22">
+        <f>($B$5/5)+E12+(F12*0)+(INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="K12" s="23">
+        <f>I12-J12-(D12*0)</f>
         <v/>
       </c>
     </row>
@@ -1758,41 +1773,37 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B13" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D13" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>102</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H13" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I13" s="19">
+      <c r="B13" s="19" t="n">
+        <v>5864</v>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>6450</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="inlineStr"/>
+      <c r="I13" s="22">
         <f>D13*G13</f>
         <v/>
       </c>
-      <c r="J13" s="19">
-        <f>($B$5/5)+E13+(F13*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="20">
-        <f>I13-J13-(D13*40)</f>
+      <c r="J13" s="22">
+        <f>($B$5/5)+E13+(F13*0)+(INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="K13" s="23">
+        <f>I13-J13-(D13*0)</f>
         <v/>
       </c>
     </row>
@@ -1802,41 +1813,37 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B14" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D14" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="11" t="n">
-        <v>82</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H14" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I14" s="19">
+      <c r="B14" s="19" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>6050</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="inlineStr"/>
+      <c r="I14" s="22">
         <f>D14*G14</f>
         <v/>
       </c>
-      <c r="J14" s="19">
-        <f>($B$5/5)+E14+(F14*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="20">
-        <f>I14-J14-(D14*40)</f>
+      <c r="J14" s="22">
+        <f>($B$5/5)+E14+(F14*0)+(INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="K14" s="23">
+        <f>I14-J14-(D14*0)</f>
         <v/>
       </c>
     </row>
@@ -1846,41 +1853,37 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D15" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H15" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I15" s="19">
+      <c r="B15" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="inlineStr"/>
+      <c r="I15" s="22">
         <f>D15*G15</f>
         <v/>
       </c>
-      <c r="J15" s="19">
-        <f>($B$5/5)+E15+(F15*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="20">
-        <f>I15-J15-(D15*40)</f>
+      <c r="J15" s="22">
+        <f>($B$5/5)+E15+(F15*0)+(INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="K15" s="23">
+        <f>I15-J15-(D15*0)</f>
         <v/>
       </c>
     </row>
@@ -1890,63 +1893,59 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B16" s="16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D16" s="18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" s="11" t="n">
-        <v>68</v>
-      </c>
-      <c r="H16" s="10" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="I16" s="19">
+      <c r="B16" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>TRUE DEMAND HIGHER</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="inlineStr"/>
+      <c r="I16" s="22">
         <f>D16*G16</f>
         <v/>
       </c>
-      <c r="J16" s="19">
-        <f>($B$5/5)+E16+(F16*5000)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="20">
-        <f>I16-J16-(D16*40)</f>
+      <c r="J16" s="22">
+        <f>($B$5/5)+E16+(F16*0)+(INNOVATION_LAB!C20/5)</f>
+        <v/>
+      </c>
+      <c r="K16" s="23">
+        <f>I16-J16-(D16*0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="24">
         <f>SUM(D12:D16)</f>
         <v/>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="25">
         <f>SUM(I12:I16)</f>
         <v/>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="25">
         <f>SUM(J12:J16)</f>
         <v/>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="26">
         <f>SUM(K12:K16)</f>
         <v/>
       </c>
@@ -1978,7 +1977,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Marketing upload</t>
         </is>
@@ -2032,42 +2031,42 @@
           <t>Brand Focus</t>
         </is>
       </c>
-      <c r="G5" s="24" t="inlineStr">
+      <c r="G5" s="27" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="H5" s="24" t="inlineStr">
+      <c r="H5" s="27" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="J5" s="24" t="inlineStr">
+      <c r="J5" s="27" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="K5" s="24" t="inlineStr">
+      <c r="K5" s="27" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="L5" s="24" t="inlineStr">
+      <c r="L5" s="27" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="N5" s="24" t="inlineStr">
+      <c r="N5" s="27" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="O5" s="24" t="inlineStr">
+      <c r="O5" s="27" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="P5" s="24" t="inlineStr">
+      <c r="P5" s="27" t="inlineStr">
         <is>
           <t>Salespeople</t>
         </is>
@@ -2435,24 +2434,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Innovation upload</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="inlineStr">
+      <c r="A4" s="27" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="B4" s="24" t="inlineStr">
+      <c r="B4" s="27" t="inlineStr">
         <is>
           <t>Improvement</t>
         </is>
       </c>
-      <c r="C4" s="24" t="inlineStr">
+      <c r="C4" s="27" t="inlineStr">
         <is>
           <t>Value</t>
         </is>

--- a/CMO Dashboard/CMO_Dashboard_Complete.xlsx
+++ b/CMO Dashboard/CMO_Dashboard_Complete.xlsx
@@ -20,12 +20,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="$#,##0"/>
+    <numFmt numFmtId="167" formatCode="$#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,6 +38,10 @@
       <b val="1"/>
       <color rgb="002F5496"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00006100"/>
     </font>
     <font>
       <b val="1"/>
@@ -56,6 +61,11 @@
     </font>
     <font>
       <b val="1"/>
+      <i val="1"/>
+      <color rgb="00666666"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="009C0006"/>
     </font>
   </fonts>
@@ -65,6 +75,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -80,18 +96,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEB9C"/>
-        <bgColor rgb="00FFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFF2CC"/>
         <bgColor rgb="00FFF2CC"/>
       </patternFill>
@@ -100,6 +104,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E2EFDA"/>
         <bgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7E6E6"/>
+        <bgColor rgb="00E7E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -130,46 +140,58 @@
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="1"/>
         <color rgb="009C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,9 +876,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
@@ -868,428 +891,473 @@
           <t>SEGMENT PULSE - Market Allocation Drivers</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Normal Demand Expected</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>COMPETITIVE POSITIONING</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>HIGH SEGMENT ANALYSIS</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Attractiveness</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>My Market Share</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Est. Demand</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Awareness Gap</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Price Gap</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Attractiveness</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>Allocation Flag</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>My Product</t>
         </is>
       </c>
-      <c r="I4" s="5" t="n">
-        <v>50.286</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>14.96</v>
+      <c r="I4" s="6" t="n">
+        <v>48.678</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>14.45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>-21.13333333333334</v>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>0.1114059235182913</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="B5" s="7" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C5" s="8" t="n">
+        <v>9996.799999999999</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>-21.55</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>CRITICAL: Boost TV for Allocation</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>Competitors</t>
         </is>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>50.622</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="I5" s="6" t="n">
+        <v>48.678</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>-14.02333333333333</v>
-      </c>
-      <c r="D6" s="8" t="n">
-        <v>-0.0881673405396485</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="B6" s="7" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C6" s="8" t="n">
+        <v>5472</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>-4.059999999999999</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>CRITICAL: Boost TV for Allocation</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>2.043333333333337</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>-0.08011511325659113</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="B7" s="7" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C7" s="8" t="n">
+        <v>4253.2</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>-6.920000000000002</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>1.526571566785047e-16</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>CRITICAL: Boost TV for Allocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>LOW SEGMENT ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>My Market Share</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Est. Demand</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Awareness Gap</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Price Gap</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Attractiveness</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>Allocation Flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C14" s="8" t="n">
+        <v>15408.8</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>11883</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="G15" s="12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>11642.4</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>1.526571566785047e-16</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>CRITICAL: Boost TV for Allocation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="B17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>CRITICAL: Boost TV for Allocation</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>LOW SEGMENT ANALYSIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>My Market Share</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Awareness Gap</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Price Gap</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="B18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>HIGH vs LOW SEGMENT GAP</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>High Segment</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>Low Segment</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>Awareness</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>22.518</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>22.518</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>Price Competitiveness</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>Attractiveness</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Allocation Flag</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>-7.606666666666666</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>0.1114059235182913</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="F14" s="11" t="inlineStr">
-        <is>
-          <t>RISK: Losing Volume to Price</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>-0.5033333333333339</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>-0.0881673405396485</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>2.529999999999994</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>-0.08011511325659113</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>25.35</v>
-      </c>
-      <c r="F16" s="10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>HIGH vs LOW SEGMENT GAP</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="I26" s="3" t="inlineStr">
-        <is>
-          <t>High Segment</t>
-        </is>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>Low Segment</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="H27" s="4" t="inlineStr">
-        <is>
-          <t>Awareness</t>
-        </is>
-      </c>
-      <c r="I27" s="4" t="n">
-        <v>24.584</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <v>24.584</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>Price Competitiveness</t>
-        </is>
-      </c>
-      <c r="I28" s="4" t="n">
-        <v>98.86246939444104</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <v>98.86246939444104</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>Attractiveness</t>
-        </is>
-      </c>
-      <c r="I29" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <v>14.96</v>
+      <c r="I29" s="5" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>14.45</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1379,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C9">
+  <conditionalFormatting sqref="D5:D9">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3TrafficLights1" showValue="1" reverse="0">
         <cfvo type="num" val="0"/>
@@ -1320,7 +1388,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C17">
+  <conditionalFormatting sqref="D13:D17">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3TrafficLights1" showValue="1" reverse="0">
         <cfvo type="num" val="0"/>
@@ -1329,14 +1397,14 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
+  <conditionalFormatting sqref="E5:E9">
     <cfRule type="expression" priority="5" dxfId="0">
-      <formula>D5&gt;0.1</formula>
+      <formula>E5&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D17">
+  <conditionalFormatting sqref="E13:E17">
     <cfRule type="expression" priority="5" dxfId="0">
-      <formula>D5&gt;0.1</formula>
+      <formula>E5&gt;0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1350,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1361,6 +1429,7 @@
     <col width="35" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1371,218 +1440,283 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Note: Innovations increase Attractiveness. Required for High Segment Allocation.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Feature Name</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Decision (1=Yes)</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Est. Cost ($)</t>
         </is>
       </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Calculated Est. Cost</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="B5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="n">
+      <c r="B5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D5" s="16">
+        <f>C5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14" t="n">
+      <c r="B6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D6" s="16">
+        <f>C6</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14" t="n">
+      <c r="B7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D7" s="16">
+        <f>C7</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="B8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14" t="n">
+      <c r="B8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D8" s="16">
+        <f>C8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14" t="n">
+      <c r="B9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D9" s="16">
+        <f>C9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="B10" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14" t="n">
+      <c r="B10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D10" s="16">
+        <f>C10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="B11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="B11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D11" s="16">
+        <f>C11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="B12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="B12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D12" s="16">
+        <f>C12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="B13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="B13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D13" s="16">
+        <f>C13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="B14" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="n">
+      <c r="B14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D14" s="16">
+        <f>C14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="B15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="n">
+      <c r="B15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D15" s="16">
+        <f>C15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="B16" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14" t="n">
+      <c r="B16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D16" s="16">
+        <f>C16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="B17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="B17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D17" s="16">
+        <f>C17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="B18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="n">
         <v>10000</v>
       </c>
+      <c r="D18" s="16">
+        <f>C18</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="17" t="inlineStr">
         <is>
           <t>TOTAL INNOVATION COST</t>
         </is>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="18">
+        <f>SUMPRODUCT(B5:B18,C5:C18)</f>
+        <v/>
+      </c>
+      <c r="D20">
         <f>SUMPRODUCT(B5:B18,C5:C18)</f>
         <v/>
       </c>
@@ -1598,7 +1732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,350 +1741,415 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>UNIT ECONOMICS CHEAT SHEET</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>TV Cost/Spot</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>Radio Cost/Spot</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="inlineStr">
+        <is>
+          <t>Hiring Fee</t>
+        </is>
+      </c>
+      <c r="D2" s="19" t="inlineStr">
+        <is>
+          <t>Salary/Person</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="20" t="n">
+        <v>3787</v>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>255</v>
+      </c>
+      <c r="C3" s="20" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>HOW TO USE: Adjust Yellow cells. Check Profit Projection. Go to UPLOAD_READY tabs to copy decisions.</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>SECTION A: GLOBAL ALLOCATIONS</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>TV Budget ($)</t>
-        </is>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>Primary Driver: High Segment Awareness</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>TV Spots (Qty)</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <f>B9*3787.0</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Brand Focus (0-100)</t>
         </is>
       </c>
-      <c r="B6" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="B10" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>0=Awareness focus, 100=Attributes focus</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>SECTION B: ZONAL ALLOCATIONS</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="18" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B15" s="22" t="inlineStr">
         <is>
           <t>Last Sales</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C15" s="22" t="inlineStr">
         <is>
           <t>Stockout?</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D15" s="22" t="inlineStr">
         <is>
           <t>Target Demand</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>Radio Budget</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
-        <is>
-          <t>Salespeople</t>
-        </is>
-      </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="E15" s="22" t="inlineStr">
+        <is>
+          <t>Radio Spots (Qty)</t>
+        </is>
+      </c>
+      <c r="F15" s="22" t="inlineStr">
+        <is>
+          <t>Headcount</t>
+        </is>
+      </c>
+      <c r="G15" s="22" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H11" s="18" t="inlineStr">
+      <c r="H15" s="22" t="inlineStr">
+        <is>
+          <t>Avg Comp Price</t>
+        </is>
+      </c>
+      <c r="I15" s="22" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="I11" s="18" t="inlineStr">
+      <c r="J15" s="22" t="inlineStr">
         <is>
           <t>Est. Revenue</t>
         </is>
       </c>
-      <c r="J11" s="18" t="inlineStr">
+      <c r="K15" s="22" t="inlineStr">
         <is>
           <t>Mkt Cost</t>
         </is>
       </c>
-      <c r="K11" s="18" t="inlineStr">
+      <c r="L15" s="22" t="inlineStr">
         <is>
           <t>Contribution</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="B12" s="19" t="n">
-        <v>6770</v>
-      </c>
-      <c r="C12" s="20" t="inlineStr">
+      <c r="B16" s="23" t="n">
+        <v>8727</v>
+      </c>
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D12" s="21" t="n">
-        <v>7447</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13" t="inlineStr"/>
-      <c r="I12" s="22">
-        <f>D12*G12</f>
-        <v/>
-      </c>
-      <c r="J12" s="22">
-        <f>($B$5/5)+E12+(F12*0)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K12" s="23">
-        <f>I12-J12-(D12*0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="D16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>89.70999999999999</v>
+      </c>
+      <c r="I16" s="21" t="inlineStr"/>
+      <c r="J16" s="16">
+        <f>D16*G16</f>
+        <v/>
+      </c>
+      <c r="K16" s="16">
+        <f>(C9/5) + (E16*255.0) + (F16*1500) + (MAX(0, F16-5)*1100)</f>
+        <v/>
+      </c>
+      <c r="L16" s="26">
+        <f>J16-K16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="B13" s="19" t="n">
-        <v>5864</v>
-      </c>
-      <c r="C13" s="20" t="inlineStr">
+      <c r="B17" s="23" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C17" s="24" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D13" s="21" t="n">
-        <v>6450</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13" t="inlineStr"/>
-      <c r="I13" s="22">
-        <f>D13*G13</f>
-        <v/>
-      </c>
-      <c r="J13" s="22">
-        <f>($B$5/5)+E13+(F13*0)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K13" s="23">
-        <f>I13-J13-(D13*0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="D17" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>60.59</v>
+      </c>
+      <c r="I17" s="21" t="inlineStr"/>
+      <c r="J17" s="16">
+        <f>D17*G17</f>
+        <v/>
+      </c>
+      <c r="K17" s="16">
+        <f>(C9/5) + (E17*255.0) + (F17*1500) + (MAX(0, F17-5)*1100)</f>
+        <v/>
+      </c>
+      <c r="L17" s="26">
+        <f>J17-K17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="B14" s="19" t="n">
-        <v>5500</v>
-      </c>
-      <c r="C14" s="20" t="inlineStr">
+      <c r="B18" s="23" t="n">
+        <v>8404</v>
+      </c>
+      <c r="C18" s="24" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D14" s="21" t="n">
-        <v>6050</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13" t="inlineStr"/>
-      <c r="I14" s="22">
-        <f>D14*G14</f>
-        <v/>
-      </c>
-      <c r="J14" s="22">
-        <f>($B$5/5)+E14+(F14*0)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K14" s="23">
-        <f>I14-J14-(D14*0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="D18" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <v>93.08999999999999</v>
+      </c>
+      <c r="I18" s="21" t="inlineStr"/>
+      <c r="J18" s="16">
+        <f>D18*G18</f>
+        <v/>
+      </c>
+      <c r="K18" s="16">
+        <f>(C9/5) + (E18*255.0) + (F18*1500) + (MAX(0, F18-5)*1100)</f>
+        <v/>
+      </c>
+      <c r="L18" s="26">
+        <f>J18-K18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="B15" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="B19" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13" t="inlineStr"/>
-      <c r="I15" s="22">
-        <f>D15*G15</f>
-        <v/>
-      </c>
-      <c r="J15" s="22">
-        <f>($B$5/5)+E15+(F15*0)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K15" s="23">
-        <f>I15-J15-(D15*0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="D19" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21" t="inlineStr"/>
+      <c r="J19" s="16">
+        <f>D19*G19</f>
+        <v/>
+      </c>
+      <c r="K19" s="16">
+        <f>(C9/5) + (E19*255.0) + (F19*1500) + (MAX(0, F19-5)*1100)</f>
+        <v/>
+      </c>
+      <c r="L19" s="26">
+        <f>J19-K19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="B16" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="20" t="inlineStr">
+      <c r="B20" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13" t="inlineStr"/>
-      <c r="I16" s="22">
-        <f>D16*G16</f>
-        <v/>
-      </c>
-      <c r="J16" s="22">
-        <f>($B$5/5)+E16+(F16*0)+(INNOVATION_LAB!C20/5)</f>
-        <v/>
-      </c>
-      <c r="K16" s="23">
-        <f>I16-J16-(D16*0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="D17" s="24">
-        <f>SUM(D12:D16)</f>
-        <v/>
-      </c>
-      <c r="I17" s="25">
-        <f>SUM(I12:I16)</f>
-        <v/>
-      </c>
-      <c r="J17" s="25">
-        <f>SUM(J12:J16)</f>
-        <v/>
-      </c>
-      <c r="K17" s="26">
-        <f>SUM(K12:K16)</f>
+      <c r="D20" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21" t="inlineStr"/>
+      <c r="J20" s="16">
+        <f>D20*G20</f>
+        <v/>
+      </c>
+      <c r="K20" s="16">
+        <f>(C9/5) + (E20*255.0) + (F20*1500) + (MAX(0, F20-5)*1100)</f>
+        <v/>
+      </c>
+      <c r="L20" s="26">
+        <f>J20-K20</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" priority="1" dxfId="1">
+      <formula>G16&gt;(H16*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>G17&gt;(H17*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" priority="3" dxfId="1">
+      <formula>G18&gt;(H18*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>G19&gt;(H19*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="expression" priority="5" dxfId="1">
+      <formula>G20&gt;(H20*1.15)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1977,56 +2176,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Marketing upload</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Marketing Campaigns</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Pricing Strategy</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>Channels</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Channel</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Brand Focus</t>
         </is>
@@ -2073,332 +2272,332 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="D6" s="4">
-        <f>STRATEGY_COCKPIT!B5</f>
-        <v/>
-      </c>
-      <c r="E6" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="D6" s="5">
+        <f>STRATEGY_COCKPIT!C9</f>
+        <v/>
+      </c>
+      <c r="E6" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="H6" s="4">
-        <f>STRATEGY_COCKPIT!D12</f>
-        <v/>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="H6" s="5">
+        <f>STRATEGY_COCKPIT!D16</f>
+        <v/>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L6" s="4">
-        <f>STRATEGY_COCKPIT!G12</f>
-        <v/>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="L6" s="5">
+        <f>STRATEGY_COCKPIT!G16</f>
+        <v/>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="O6" s="4">
-        <f>STRATEGY_COCKPIT!H12</f>
-        <v/>
-      </c>
-      <c r="P6" s="4">
-        <f>STRATEGY_COCKPIT!F12</f>
+      <c r="O6" s="5">
+        <f>STRATEGY_COCKPIT!I16</f>
+        <v/>
+      </c>
+      <c r="P6" s="5">
+        <f>STRATEGY_COCKPIT!F16</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D7" s="4">
-        <f>STRATEGY_COCKPIT!E12</f>
-        <v/>
-      </c>
-      <c r="E7" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="D7" s="5">
+        <f>STRATEGY_COCKPIT!E16*STRATEGY_COCKPIT!$B$3</f>
+        <v/>
+      </c>
+      <c r="E7" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="H7" s="4">
-        <f>STRATEGY_COCKPIT!D13</f>
-        <v/>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="H7" s="5">
+        <f>STRATEGY_COCKPIT!D17</f>
+        <v/>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="K7" s="4" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L7" s="4">
-        <f>STRATEGY_COCKPIT!G13</f>
-        <v/>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
+      <c r="L7" s="5">
+        <f>STRATEGY_COCKPIT!G17</f>
+        <v/>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="O7" s="4">
-        <f>STRATEGY_COCKPIT!H13</f>
-        <v/>
-      </c>
-      <c r="P7" s="4">
-        <f>STRATEGY_COCKPIT!F13</f>
+      <c r="O7" s="5">
+        <f>STRATEGY_COCKPIT!I17</f>
+        <v/>
+      </c>
+      <c r="P7" s="5">
+        <f>STRATEGY_COCKPIT!F17</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>West</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D8" s="4">
-        <f>STRATEGY_COCKPIT!E13</f>
-        <v/>
-      </c>
-      <c r="E8" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="D8" s="5">
+        <f>STRATEGY_COCKPIT!E17*STRATEGY_COCKPIT!$B$3</f>
+        <v/>
+      </c>
+      <c r="E8" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="H8" s="4">
-        <f>STRATEGY_COCKPIT!D14</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="H8" s="5">
+        <f>STRATEGY_COCKPIT!D18</f>
+        <v/>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L8" s="4">
-        <f>STRATEGY_COCKPIT!G14</f>
-        <v/>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="L8" s="5">
+        <f>STRATEGY_COCKPIT!G18</f>
+        <v/>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="O8" s="4">
-        <f>STRATEGY_COCKPIT!H14</f>
-        <v/>
-      </c>
-      <c r="P8" s="4">
-        <f>STRATEGY_COCKPIT!F14</f>
+      <c r="O8" s="5">
+        <f>STRATEGY_COCKPIT!I18</f>
+        <v/>
+      </c>
+      <c r="P8" s="5">
+        <f>STRATEGY_COCKPIT!F18</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>North</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D9" s="4">
-        <f>STRATEGY_COCKPIT!E14</f>
-        <v/>
-      </c>
-      <c r="E9" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="D9" s="5">
+        <f>STRATEGY_COCKPIT!E18*STRATEGY_COCKPIT!$B$3</f>
+        <v/>
+      </c>
+      <c r="E9" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="H9" s="4">
-        <f>STRATEGY_COCKPIT!D15</f>
-        <v/>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="H9" s="5">
+        <f>STRATEGY_COCKPIT!D19</f>
+        <v/>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L9" s="4">
-        <f>STRATEGY_COCKPIT!G15</f>
-        <v/>
-      </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="L9" s="5">
+        <f>STRATEGY_COCKPIT!G19</f>
+        <v/>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="O9" s="4">
-        <f>STRATEGY_COCKPIT!H15</f>
-        <v/>
-      </c>
-      <c r="P9" s="4">
-        <f>STRATEGY_COCKPIT!F15</f>
+      <c r="O9" s="5">
+        <f>STRATEGY_COCKPIT!I19</f>
+        <v/>
+      </c>
+      <c r="P9" s="5">
+        <f>STRATEGY_COCKPIT!F19</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>East</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D10" s="4">
-        <f>STRATEGY_COCKPIT!E15</f>
-        <v/>
-      </c>
-      <c r="E10" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
-        <v/>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="D10" s="5">
+        <f>STRATEGY_COCKPIT!E19*STRATEGY_COCKPIT!$B$3</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
+        <v/>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="H10" s="4">
-        <f>STRATEGY_COCKPIT!D16</f>
-        <v/>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="H10" s="5">
+        <f>STRATEGY_COCKPIT!D20</f>
+        <v/>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="K10" s="4" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="L10" s="4">
-        <f>STRATEGY_COCKPIT!G16</f>
-        <v/>
-      </c>
-      <c r="N10" s="4" t="inlineStr">
+      <c r="L10" s="5">
+        <f>STRATEGY_COCKPIT!G20</f>
+        <v/>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="O10" s="4">
-        <f>STRATEGY_COCKPIT!H16</f>
-        <v/>
-      </c>
-      <c r="P10" s="4">
-        <f>STRATEGY_COCKPIT!F16</f>
+      <c r="O10" s="5">
+        <f>STRATEGY_COCKPIT!I20</f>
+        <v/>
+      </c>
+      <c r="P10" s="5">
+        <f>STRATEGY_COCKPIT!F20</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>South</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Radio</t>
         </is>
       </c>
-      <c r="D11" s="4">
-        <f>STRATEGY_COCKPIT!E16</f>
-        <v/>
-      </c>
-      <c r="E11" s="4">
-        <f>STRATEGY_COCKPIT!B6</f>
+      <c r="D11" s="5">
+        <f>STRATEGY_COCKPIT!E20*STRATEGY_COCKPIT!$B$3</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
+        <f>STRATEGY_COCKPIT!B10</f>
         <v/>
       </c>
     </row>
@@ -2434,7 +2633,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Innovation upload</t>
         </is>
@@ -2458,225 +2657,225 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f>INNOVATION_LAB!B5</f>
         <v/>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f>INNOVATION_LAB!B6</f>
         <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f>INNOVATION_LAB!B7</f>
         <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <f>INNOVATION_LAB!B8</f>
         <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <f>INNOVATION_LAB!B9</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <f>INNOVATION_LAB!B10</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <f>INNOVATION_LAB!B11</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <f>INNOVATION_LAB!B12</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f>INNOVATION_LAB!B13</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <f>INNOVATION_LAB!B14</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <f>INNOVATION_LAB!B15</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <f>INNOVATION_LAB!B16</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <f>INNOVATION_LAB!B17</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <f>INNOVATION_LAB!B18</f>
         <v/>
       </c>

--- a/CMO Dashboard/CMO_Dashboard_Complete.xlsx
+++ b/CMO Dashboard/CMO_Dashboard_Complete.xlsx
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="I4" s="6" t="n">
-        <v>48.678</v>
+        <v>45.4</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>14.45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -979,19 +979,19 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>28.4</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>9996.799999999999</v>
+        <v>8800</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>-21.55</v>
+        <v>-13.67</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24.58</v>
+        <v>20</v>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="I5" s="6" t="n">
-        <v>48.678</v>
+        <v>45.4</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="B6" s="7" t="n">
-        <v>22.8</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8" t="n">
-        <v>5472</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>-4.059999999999999</v>
+        <v>-12.42</v>
       </c>
       <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.95</v>
+        <v>20</v>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>21.7</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="n">
-        <v>4253.2</v>
+        <v>4900</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>-6.920000000000002</v>
+        <v>-3.739999999999998</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>1.526571566785047e-16</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22.72</v>
+        <v>20</v>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>20.6</v>
+        <v>25</v>
       </c>
       <c r="C14" s="8" t="n">
-        <v>15408.8</v>
+        <v>18700</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24.58</v>
+        <v>20</v>
       </c>
       <c r="G14" s="12" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>23.3</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="n">
-        <v>11883</v>
+        <v>12750</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24.95</v>
+        <v>20</v>
       </c>
       <c r="G15" s="12" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>23.1</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>11642.4</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>12600</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>-3.552713678800501e-15</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>1.526571566785047e-16</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22.72</v>
+        <v>20</v>
       </c>
       <c r="G16" s="12" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="I27" s="5" t="n">
-        <v>22.518</v>
+        <v>20.762</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>22.518</v>
+        <v>20.762</v>
       </c>
     </row>
     <row r="28">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="I29" s="5" t="n">
-        <v>14.45</v>
+        <v>12</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>14.45</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="3">
       <c r="A3" s="20" t="n">
-        <v>3787</v>
+        <v>3000</v>
       </c>
       <c r="B3" s="20" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C3" s="20" t="n">
         <v>1100</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="16">
-        <f>B9*3787.0</f>
+        <f>B9*3000.0</f>
         <v/>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="B16" s="23" t="n">
-        <v>8727</v>
+        <v>8900</v>
       </c>
       <c r="C16" s="24" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="25" t="n">
-        <v>89.70999999999999</v>
+        <v>68</v>
       </c>
       <c r="I16" s="21" t="inlineStr"/>
       <c r="J16" s="16">
@@ -1944,7 +1944,7 @@
         <v/>
       </c>
       <c r="K16" s="16">
-        <f>(C9/5) + (E16*255.0) + (F16*1500) + (MAX(0, F16-5)*1100)</f>
+        <f>(C9/5) + (E16*300.0) + (F16*1500) + (MAX(0, F16-5)*1100)</f>
         <v/>
       </c>
       <c r="L16" s="26">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="B17" s="23" t="n">
-        <v>4621</v>
+        <v>4028</v>
       </c>
       <c r="C17" s="24" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="25" t="n">
-        <v>60.59</v>
+        <v>68</v>
       </c>
       <c r="I17" s="21" t="inlineStr"/>
       <c r="J17" s="16">
@@ -1987,7 +1987,7 @@
         <v/>
       </c>
       <c r="K17" s="16">
-        <f>(C9/5) + (E17*255.0) + (F17*1500) + (MAX(0, F17-5)*1100)</f>
+        <f>(C9/5) + (E17*300.0) + (F17*1500) + (MAX(0, F17-5)*1100)</f>
         <v/>
       </c>
       <c r="L17" s="26">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B18" s="23" t="n">
-        <v>8404</v>
+        <v>4400</v>
       </c>
       <c r="C18" s="24" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="25" t="n">
-        <v>93.08999999999999</v>
+        <v>91</v>
       </c>
       <c r="I18" s="21" t="inlineStr"/>
       <c r="J18" s="16">
@@ -2030,7 +2030,7 @@
         <v/>
       </c>
       <c r="K18" s="16">
-        <f>(C9/5) + (E18*255.0) + (F18*1500) + (MAX(0, F18-5)*1100)</f>
+        <f>(C9/5) + (E18*300.0) + (F18*1500) + (MAX(0, F18-5)*1100)</f>
         <v/>
       </c>
       <c r="L18" s="26">
@@ -2073,7 +2073,7 @@
         <v/>
       </c>
       <c r="K19" s="16">
-        <f>(C9/5) + (E19*255.0) + (F19*1500) + (MAX(0, F19-5)*1100)</f>
+        <f>(C9/5) + (E19*300.0) + (F19*1500) + (MAX(0, F19-5)*1100)</f>
         <v/>
       </c>
       <c r="L19" s="26">
@@ -2116,7 +2116,7 @@
         <v/>
       </c>
       <c r="K20" s="16">
-        <f>(C9/5) + (E20*255.0) + (F20*1500) + (MAX(0, F20-5)*1100)</f>
+        <f>(C9/5) + (E20*300.0) + (F20*1500) + (MAX(0, F20-5)*1100)</f>
         <v/>
       </c>
       <c r="L20" s="26">

--- a/CMO Dashboard/CMO_Dashboard_Complete.xlsx
+++ b/CMO Dashboard/CMO_Dashboard_Complete.xlsx
@@ -96,6 +96,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFF2CC"/>
         <bgColor rgb="00FFF2CC"/>
       </patternFill>
@@ -110,12 +116,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E7E6E6"/>
         <bgColor rgb="00E7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -150,24 +150,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -1085,9 +1086,9 @@
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="inlineStr">
-        <is>
-          <t>CRITICAL: Boost TV for Allocation</t>
+      <c r="G8" s="12" t="inlineStr">
+        <is>
+          <t>NO PRESENCE: Zone Not Active</t>
         </is>
       </c>
     </row>
@@ -1112,9 +1113,9 @@
       <c r="F9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>CRITICAL: Boost TV for Allocation</t>
+      <c r="G9" s="12" t="inlineStr">
+        <is>
+          <t>NO PRESENCE: Zone Not Active</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1184,7 @@
       <c r="F14" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G14" s="12" t="inlineStr">
+      <c r="G14" s="13" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1210,7 +1211,7 @@
       <c r="F15" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="12" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1237,7 +1238,7 @@
       <c r="F16" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="12" t="inlineStr">
+      <c r="G16" s="13" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="G17" s="12" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO PRESENCE: Zone Not Active</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1294,7 @@
       </c>
       <c r="G18" s="12" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO PRESENCE: Zone Not Active</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1441,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>Note: Innovations increase Attractiveness. Required for High Segment Allocation.</t>
         </is>
@@ -1474,13 +1475,13 @@
           <t>STAINLESS MATERIAL</t>
         </is>
       </c>
-      <c r="B5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15" t="n">
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <f>C5</f>
         <v/>
       </c>
@@ -1491,13 +1492,13 @@
           <t>RECYCLABLE MATERIALS</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15" t="n">
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <f>C6</f>
         <v/>
       </c>
@@ -1508,13 +1509,13 @@
           <t>ENERGY EFFICIENCY</t>
         </is>
       </c>
-      <c r="B7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15" t="n">
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <f>C7</f>
         <v/>
       </c>
@@ -1525,13 +1526,13 @@
           <t>LIGHTER AND MORE COMPACT</t>
         </is>
       </c>
-      <c r="B8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15" t="n">
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <f>C8</f>
         <v/>
       </c>
@@ -1542,13 +1543,13 @@
           <t>IMPACT RESISTANCE</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="n">
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <f>C9</f>
         <v/>
       </c>
@@ -1559,13 +1560,13 @@
           <t>NOISE REDUCTION</t>
         </is>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="n">
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <f>C10</f>
         <v/>
       </c>
@@ -1576,13 +1577,13 @@
           <t>IMPROVED BATTERY CAPACITY</t>
         </is>
       </c>
-      <c r="B11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="n">
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <f>C11</f>
         <v/>
       </c>
@@ -1593,13 +1594,13 @@
           <t>SELF-CLEANING</t>
         </is>
       </c>
-      <c r="B12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="15" t="n">
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <f>C12</f>
         <v/>
       </c>
@@ -1610,13 +1611,13 @@
           <t>SPEED SETTINGS</t>
         </is>
       </c>
-      <c r="B13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15" t="n">
+      <c r="B13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <f>C13</f>
         <v/>
       </c>
@@ -1627,13 +1628,13 @@
           <t>DIGITAL CONTROLS</t>
         </is>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15" t="n">
+      <c r="B14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <f>C14</f>
         <v/>
       </c>
@@ -1644,13 +1645,13 @@
           <t>VOICE ASSISTANCE INTEGRATION</t>
         </is>
       </c>
-      <c r="B15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15" t="n">
+      <c r="B15" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <f>C15</f>
         <v/>
       </c>
@@ -1661,13 +1662,13 @@
           <t>AUTOMATION AND PROGRAMMABILITY</t>
         </is>
       </c>
-      <c r="B16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="15" t="n">
+      <c r="B16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="17">
         <f>C16</f>
         <v/>
       </c>
@@ -1678,13 +1679,13 @@
           <t>MULTIFUNCTIONAL ACCESSORIES</t>
         </is>
       </c>
-      <c r="B17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15" t="n">
+      <c r="B17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <f>C17</f>
         <v/>
       </c>
@@ -1695,24 +1696,24 @@
           <t>MAPPING TECHNOLOGY</t>
         </is>
       </c>
-      <c r="B18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="15" t="n">
+      <c r="B18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="n">
         <v>10000</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="17">
         <f>C18</f>
         <v/>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="inlineStr">
+      <c r="A20" s="18" t="inlineStr">
         <is>
           <t>TOTAL INNOVATION COST</t>
         </is>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <f>SUMPRODUCT(B5:B18,C5:C18)</f>
         <v/>
       </c>
@@ -1762,43 +1763,43 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>TV Cost/Spot</t>
         </is>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Radio Cost/Spot</t>
         </is>
       </c>
-      <c r="C2" s="19" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Hiring Fee</t>
         </is>
       </c>
-      <c r="D2" s="19" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>Salary/Person</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="21" t="n">
         <v>3000</v>
       </c>
-      <c r="B3" s="20" t="n">
+      <c r="B3" s="21" t="n">
         <v>300</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="21" t="n">
         <v>1100</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="21" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="14" t="inlineStr">
         <is>
           <t>HOW TO USE: Adjust Yellow cells. Check Profit Projection. Go to UPLOAD_READY tabs to copy decisions.</t>
         </is>
@@ -1817,10 +1818,10 @@
           <t>TV Spots (Qty)</t>
         </is>
       </c>
-      <c r="B9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
         <f>B9*3000.0</f>
         <v/>
       </c>
@@ -1831,10 +1832,10 @@
           <t>Brand Focus (0-100)</t>
         </is>
       </c>
-      <c r="B10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="B10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>0=Awareness focus, 100=Attributes focus</t>
         </is>
@@ -1848,62 +1849,62 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="inlineStr">
+      <c r="A15" s="23" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="B15" s="22" t="inlineStr">
+      <c r="B15" s="23" t="inlineStr">
         <is>
           <t>Last Sales</t>
         </is>
       </c>
-      <c r="C15" s="22" t="inlineStr">
+      <c r="C15" s="23" t="inlineStr">
         <is>
           <t>Stockout?</t>
         </is>
       </c>
-      <c r="D15" s="22" t="inlineStr">
+      <c r="D15" s="23" t="inlineStr">
         <is>
           <t>Target Demand</t>
         </is>
       </c>
-      <c r="E15" s="22" t="inlineStr">
+      <c r="E15" s="23" t="inlineStr">
         <is>
           <t>Radio Spots (Qty)</t>
         </is>
       </c>
-      <c r="F15" s="22" t="inlineStr">
+      <c r="F15" s="23" t="inlineStr">
         <is>
           <t>Headcount</t>
         </is>
       </c>
-      <c r="G15" s="22" t="inlineStr">
+      <c r="G15" s="23" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="H15" s="22" t="inlineStr">
+      <c r="H15" s="23" t="inlineStr">
         <is>
           <t>Avg Comp Price</t>
         </is>
       </c>
-      <c r="I15" s="22" t="inlineStr">
+      <c r="I15" s="23" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="J15" s="22" t="inlineStr">
+      <c r="J15" s="23" t="inlineStr">
         <is>
           <t>Est. Revenue</t>
         </is>
       </c>
-      <c r="K15" s="22" t="inlineStr">
+      <c r="K15" s="23" t="inlineStr">
         <is>
           <t>Mkt Cost</t>
         </is>
       </c>
-      <c r="L15" s="22" t="inlineStr">
+      <c r="L15" s="23" t="inlineStr">
         <is>
           <t>Contribution</t>
         </is>
@@ -1915,39 +1916,39 @@
           <t>Center</t>
         </is>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="24" t="n">
         <v>8900</v>
       </c>
-      <c r="C16" s="24" t="inlineStr">
+      <c r="C16" s="25" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25" t="n">
+      <c r="D16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26" t="n">
         <v>68</v>
       </c>
-      <c r="I16" s="21" t="inlineStr"/>
-      <c r="J16" s="16">
+      <c r="I16" s="22" t="inlineStr"/>
+      <c r="J16" s="17">
         <f>D16*G16</f>
         <v/>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="17">
         <f>(C9/5) + (E16*300.0) + (F16*1500) + (MAX(0, F16-5)*1100)</f>
         <v/>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="27">
         <f>J16-K16</f>
         <v/>
       </c>
@@ -1958,39 +1959,39 @@
           <t>West</t>
         </is>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="24" t="n">
         <v>4028</v>
       </c>
-      <c r="C17" s="24" t="inlineStr">
+      <c r="C17" s="25" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25" t="n">
+      <c r="D17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26" t="n">
         <v>68</v>
       </c>
-      <c r="I17" s="21" t="inlineStr"/>
-      <c r="J17" s="16">
+      <c r="I17" s="22" t="inlineStr"/>
+      <c r="J17" s="17">
         <f>D17*G17</f>
         <v/>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="17">
         <f>(C9/5) + (E17*300.0) + (F17*1500) + (MAX(0, F17-5)*1100)</f>
         <v/>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="27">
         <f>J17-K17</f>
         <v/>
       </c>
@@ -2001,39 +2002,39 @@
           <t>North</t>
         </is>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="24" t="n">
         <v>4400</v>
       </c>
-      <c r="C18" s="24" t="inlineStr">
+      <c r="C18" s="25" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25" t="n">
+      <c r="D18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26" t="n">
         <v>91</v>
       </c>
-      <c r="I18" s="21" t="inlineStr"/>
-      <c r="J18" s="16">
+      <c r="I18" s="22" t="inlineStr"/>
+      <c r="J18" s="17">
         <f>D18*G18</f>
         <v/>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="17">
         <f>(C9/5) + (E18*300.0) + (F18*1500) + (MAX(0, F18-5)*1100)</f>
         <v/>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="27">
         <f>J18-K18</f>
         <v/>
       </c>
@@ -2044,39 +2045,39 @@
           <t>East</t>
         </is>
       </c>
-      <c r="B19" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="24" t="inlineStr">
+      <c r="B19" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="25" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="21" t="inlineStr"/>
-      <c r="J19" s="16">
+      <c r="D19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="inlineStr"/>
+      <c r="J19" s="17">
         <f>D19*G19</f>
         <v/>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="17">
         <f>(C9/5) + (E19*300.0) + (F19*1500) + (MAX(0, F19-5)*1100)</f>
         <v/>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="27">
         <f>J19-K19</f>
         <v/>
       </c>
@@ -2087,39 +2088,39 @@
           <t>South</t>
         </is>
       </c>
-      <c r="B20" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24" t="inlineStr">
+      <c r="B20" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="25" t="inlineStr">
         <is>
           <t>TRUE DEMAND HIGHER</t>
         </is>
       </c>
-      <c r="D20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21" t="inlineStr"/>
-      <c r="J20" s="16">
+      <c r="D20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22" t="inlineStr"/>
+      <c r="J20" s="17">
         <f>D20*G20</f>
         <v/>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="17">
         <f>(C9/5) + (E20*300.0) + (F20*1500) + (MAX(0, F20-5)*1100)</f>
         <v/>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="27">
         <f>J20-K20</f>
         <v/>
       </c>
@@ -2176,7 +2177,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Marketing upload</t>
         </is>
@@ -2230,42 +2231,42 @@
           <t>Brand Focus</t>
         </is>
       </c>
-      <c r="G5" s="27" t="inlineStr">
+      <c r="G5" s="28" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="H5" s="27" t="inlineStr">
+      <c r="H5" s="28" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="J5" s="27" t="inlineStr">
+      <c r="J5" s="28" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="K5" s="27" t="inlineStr">
+      <c r="K5" s="28" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="L5" s="27" t="inlineStr">
+      <c r="L5" s="28" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="N5" s="27" t="inlineStr">
+      <c r="N5" s="28" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="O5" s="27" t="inlineStr">
+      <c r="O5" s="28" t="inlineStr">
         <is>
           <t>Payment</t>
         </is>
       </c>
-      <c r="P5" s="27" t="inlineStr">
+      <c r="P5" s="28" t="inlineStr">
         <is>
           <t>Salespeople</t>
         </is>
@@ -2633,24 +2634,24 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" s="14" t="inlineStr">
         <is>
           <t>Copy these values to ExSim Innovation upload</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="inlineStr">
+      <c r="A4" s="28" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="B4" s="27" t="inlineStr">
+      <c r="B4" s="28" t="inlineStr">
         <is>
           <t>Improvement</t>
         </is>
       </c>
-      <c r="C4" s="27" t="inlineStr">
+      <c r="C4" s="28" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
